--- a/UploadedFiles/Incentive Raw Data-Logi.xlsx
+++ b/UploadedFiles/Incentive Raw Data-Logi.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="99">
   <si>
     <t>Location Metric</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Total Payout based on Average Location Performance:</t>
-  </si>
-  <si>
     <t>Alta Vista</t>
   </si>
   <si>
@@ -149,10 +146,16 @@
     <t>160</t>
   </si>
   <si>
+    <t>Burns</t>
+  </si>
+  <si>
     <t>Canton</t>
   </si>
   <si>
     <t>230</t>
+  </si>
+  <si>
+    <t>Galva</t>
   </si>
   <si>
     <t>Groveland</t>
@@ -260,13 +263,7 @@
     <t>220</t>
   </si>
   <si>
-    <t>Burns</t>
-  </si>
-  <si>
     <t>360</t>
-  </si>
-  <si>
-    <t>Galva</t>
   </si>
   <si>
     <t>POD</t>
@@ -320,16 +317,16 @@
     <t>Link</t>
   </si>
   <si>
-    <t>&lt;div class="kpi-coral"&gt;0&lt;/div&gt;</t>
+    <t>&lt;div class="kpi-coral"&gt;15.00%&lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;div class="kpi-teal"&gt;0&lt;/div&gt;</t>
+    <t>&lt;div class="kpi-teal"&gt;11.25%&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div class="kpi-purple"&gt;14.95%&lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;div class="kpi-orange"&gt;0.13&lt;/div&gt;</t>
+    <t>&lt;div class="kpi-orange"&gt;13.05%&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div class="kpi-yellow"&gt;15.00%&lt;/div&gt;</t>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>&lt;div class="kpi-teal"&gt;84.26%&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T225"/>
+  <dimension ref="A1:T253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -986,43 +986,43 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T7" s="10" t="s">
         <v>8</v>
@@ -1429,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1691,23 +1691,8 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
+      <c r="K15" t="s">
+        <v>98</v>
       </c>
       <c r="P15">
         <v>0.84256731719108202</v>
@@ -1719,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1727,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1766,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1774,10 +1759,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1825,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="S17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1833,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1884,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1892,10 +1877,10 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1943,7 +1928,7 @@
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1951,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -2002,7 +1987,7 @@
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2010,10 +1995,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -2061,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2072,10 +2057,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2105,7 +2090,7 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2113,10 +2098,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2146,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="S23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2154,10 +2139,10 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2187,7 +2172,7 @@
         <v>18</v>
       </c>
       <c r="S24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2195,10 +2180,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2228,7 +2213,7 @@
         <v>18</v>
       </c>
       <c r="S25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2236,10 +2221,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2269,7 +2254,7 @@
         <v>18</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2277,10 +2262,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2310,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="S27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2318,10 +2303,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2351,7 +2336,7 @@
         <v>15</v>
       </c>
       <c r="S28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2359,34 +2344,16 @@
         <v>999</v>
       </c>
       <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
+      <c r="K29" t="s">
+        <v>98</v>
       </c>
       <c r="P29">
         <v>0.84256731719108202</v>
@@ -2398,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2406,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -2445,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="S30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2453,10 +2420,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2504,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="S31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2512,10 +2479,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2563,7 +2530,7 @@
         <v>15</v>
       </c>
       <c r="S32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2571,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2622,7 +2589,7 @@
         <v>18</v>
       </c>
       <c r="S33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2630,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2681,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="S34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2689,10 +2656,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2740,10 +2707,10 @@
         <v>15</v>
       </c>
       <c r="S35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2751,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2784,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="S36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2792,10 +2759,10 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2825,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="S37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2833,10 +2800,10 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2866,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="S38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2874,10 +2841,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2907,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="S39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2915,10 +2882,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2948,7 +2915,7 @@
         <v>18</v>
       </c>
       <c r="S40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2956,10 +2923,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2989,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="S41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -2997,10 +2964,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3030,7 +2997,7 @@
         <v>15</v>
       </c>
       <c r="S42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3038,34 +3005,16 @@
         <v>999</v>
       </c>
       <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="K43">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
+      <c r="K43" t="s">
+        <v>98</v>
       </c>
       <c r="P43">
         <v>0.84256731719108202</v>
@@ -3077,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="S43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3085,10 +3034,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C44" s="10">
+        <v>220</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -3124,7 +3073,7 @@
         <v>11</v>
       </c>
       <c r="S44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3132,10 +3081,10 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C45" s="10">
+        <v>220</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -3183,7 +3132,7 @@
         <v>11</v>
       </c>
       <c r="S45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3191,10 +3140,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C46" s="10">
+        <v>220</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -3242,7 +3191,7 @@
         <v>15</v>
       </c>
       <c r="S46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3250,10 +3199,10 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C47" s="10">
+        <v>220</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -3301,7 +3250,7 @@
         <v>18</v>
       </c>
       <c r="S47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -3309,10 +3258,10 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C48" s="10">
+        <v>220</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -3360,7 +3309,7 @@
         <v>15</v>
       </c>
       <c r="S48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3368,10 +3317,10 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C49" s="10">
+        <v>220</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -3419,10 +3368,10 @@
         <v>15</v>
       </c>
       <c r="S49" t="s">
-        <v>91</v>
-      </c>
-      <c r="T49" s="10" t="s">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="T49" s="10">
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -3430,10 +3379,10 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C50" s="10">
+        <v>220</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3463,7 +3412,7 @@
         <v>18</v>
       </c>
       <c r="S50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -3471,10 +3420,10 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C51" s="10">
+        <v>220</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3504,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="S51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -3512,10 +3461,10 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C52" s="10">
+        <v>220</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3545,7 +3494,7 @@
         <v>18</v>
       </c>
       <c r="S52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -3553,10 +3502,10 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C53" s="10">
+        <v>220</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3586,7 +3535,7 @@
         <v>18</v>
       </c>
       <c r="S53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -3594,10 +3543,10 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C54" s="10">
+        <v>220</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3627,7 +3576,7 @@
         <v>18</v>
       </c>
       <c r="S54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -3635,10 +3584,10 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C55" s="10">
+        <v>220</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3668,7 +3617,7 @@
         <v>15</v>
       </c>
       <c r="S55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -3676,10 +3625,10 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C56" s="10">
+        <v>220</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3709,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="S56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -3717,34 +3666,16 @@
         <v>999</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C57" s="10">
+        <v>220</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="K57">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L57" t="s">
-        <v>24</v>
-      </c>
-      <c r="N57">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
+      <c r="K57" t="s">
+        <v>98</v>
       </c>
       <c r="P57">
         <v>0.84256731719108202</v>
@@ -3756,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="S57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -3764,10 +3695,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -3803,7 +3734,7 @@
         <v>11</v>
       </c>
       <c r="S58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -3811,10 +3742,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3862,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="S59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -3870,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -3921,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="S60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -3929,10 +3860,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -3980,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="S61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -3988,10 +3919,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
@@ -4039,7 +3970,7 @@
         <v>15</v>
       </c>
       <c r="S62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -4047,10 +3978,10 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -4098,10 +4029,10 @@
         <v>15</v>
       </c>
       <c r="S63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4109,10 +4040,10 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4142,7 +4073,7 @@
         <v>18</v>
       </c>
       <c r="S64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -4150,10 +4081,10 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4183,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="S65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -4191,10 +4122,10 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4224,7 +4155,7 @@
         <v>18</v>
       </c>
       <c r="S66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -4232,10 +4163,10 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4265,7 +4196,7 @@
         <v>18</v>
       </c>
       <c r="S67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -4273,10 +4204,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4306,7 +4237,7 @@
         <v>18</v>
       </c>
       <c r="S68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -4314,10 +4245,10 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4347,7 +4278,7 @@
         <v>15</v>
       </c>
       <c r="S69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -4355,10 +4286,10 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4388,7 +4319,7 @@
         <v>15</v>
       </c>
       <c r="S70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -4396,34 +4327,16 @@
         <v>999</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="K71">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
+      <c r="K71" t="s">
+        <v>98</v>
       </c>
       <c r="P71">
         <v>0.84256731719108202</v>
@@ -4435,7 +4348,7 @@
         <v>15</v>
       </c>
       <c r="S71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4443,10 +4356,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C72" s="10">
+        <v>360</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -4482,7 +4395,7 @@
         <v>11</v>
       </c>
       <c r="S72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4490,10 +4403,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C73" s="10">
+        <v>360</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -4541,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="S73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -4549,10 +4462,10 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C74" s="10">
+        <v>360</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -4600,7 +4513,7 @@
         <v>15</v>
       </c>
       <c r="S74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -4608,10 +4521,10 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C75" s="10">
+        <v>360</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -4659,7 +4572,7 @@
         <v>18</v>
       </c>
       <c r="S75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -4667,10 +4580,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C76" s="10">
+        <v>360</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -4718,7 +4631,7 @@
         <v>15</v>
       </c>
       <c r="S76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -4726,10 +4639,10 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C77" s="10">
+        <v>360</v>
       </c>
       <c r="D77" t="s">
         <v>20</v>
@@ -4777,10 +4690,10 @@
         <v>15</v>
       </c>
       <c r="S77" t="s">
-        <v>91</v>
-      </c>
-      <c r="T77" s="10" t="s">
-        <v>34</v>
+        <v>90</v>
+      </c>
+      <c r="T77" s="10">
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
@@ -4788,10 +4701,10 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C78" s="10">
+        <v>360</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4821,7 +4734,7 @@
         <v>18</v>
       </c>
       <c r="S78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -4829,10 +4742,10 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C79" s="10">
+        <v>360</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -4862,7 +4775,7 @@
         <v>18</v>
       </c>
       <c r="S79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -4870,10 +4783,10 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C80" s="10">
+        <v>360</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4903,7 +4816,7 @@
         <v>18</v>
       </c>
       <c r="S80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -4911,10 +4824,10 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C81" s="10">
+        <v>360</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4944,7 +4857,7 @@
         <v>18</v>
       </c>
       <c r="S81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -4952,10 +4865,10 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C82" s="10">
+        <v>360</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4985,7 +4898,7 @@
         <v>18</v>
       </c>
       <c r="S82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -4993,10 +4906,10 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C83" s="10">
+        <v>360</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5026,7 +4939,7 @@
         <v>15</v>
       </c>
       <c r="S83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -5034,10 +4947,10 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C84" s="10">
+        <v>360</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5067,7 +4980,7 @@
         <v>15</v>
       </c>
       <c r="S84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -5075,34 +4988,16 @@
         <v>999</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C85" s="10">
+        <v>360</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="K85">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L85" t="s">
-        <v>24</v>
-      </c>
-      <c r="N85">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
+      <c r="K85" t="s">
+        <v>98</v>
       </c>
       <c r="P85">
         <v>0.84256731719108202</v>
@@ -5114,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="S85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -5122,10 +5017,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -5161,7 +5056,7 @@
         <v>11</v>
       </c>
       <c r="S86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -5169,10 +5064,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -5220,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="S87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -5228,10 +5123,10 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -5279,7 +5174,7 @@
         <v>15</v>
       </c>
       <c r="S88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -5287,10 +5182,10 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -5338,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="S89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -5346,10 +5241,10 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -5397,7 +5292,7 @@
         <v>15</v>
       </c>
       <c r="S90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -5405,10 +5300,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
@@ -5456,10 +5351,10 @@
         <v>15</v>
       </c>
       <c r="S91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -5467,10 +5362,10 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5500,7 +5395,7 @@
         <v>18</v>
       </c>
       <c r="S92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -5508,10 +5403,10 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5541,7 +5436,7 @@
         <v>18</v>
       </c>
       <c r="S93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -5549,10 +5444,10 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5582,7 +5477,7 @@
         <v>18</v>
       </c>
       <c r="S94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -5590,10 +5485,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5623,7 +5518,7 @@
         <v>18</v>
       </c>
       <c r="S95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -5631,10 +5526,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5664,7 +5559,7 @@
         <v>18</v>
       </c>
       <c r="S96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -5672,10 +5567,10 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5705,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="S97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -5713,10 +5608,10 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5746,7 +5641,7 @@
         <v>15</v>
       </c>
       <c r="S98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -5754,34 +5649,16 @@
         <v>999</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-      <c r="K99">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L99" t="s">
-        <v>24</v>
-      </c>
-      <c r="N99">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
+      <c r="K99" t="s">
+        <v>98</v>
       </c>
       <c r="P99">
         <v>0.84256731719108202</v>
@@ -5793,7 +5670,7 @@
         <v>15</v>
       </c>
       <c r="S99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -5801,10 +5678,10 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -5840,7 +5717,7 @@
         <v>11</v>
       </c>
       <c r="S100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -5848,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -5899,7 +5776,7 @@
         <v>11</v>
       </c>
       <c r="S101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -5907,10 +5784,10 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -5958,7 +5835,7 @@
         <v>15</v>
       </c>
       <c r="S102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -5966,10 +5843,10 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D103" t="s">
         <v>16</v>
@@ -6017,7 +5894,7 @@
         <v>18</v>
       </c>
       <c r="S103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -6025,10 +5902,10 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -6076,7 +5953,7 @@
         <v>15</v>
       </c>
       <c r="S104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -6084,10 +5961,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
@@ -6135,10 +6012,10 @@
         <v>15</v>
       </c>
       <c r="S105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6146,10 +6023,10 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6179,7 +6056,7 @@
         <v>18</v>
       </c>
       <c r="S106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6187,10 +6064,10 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -6220,7 +6097,7 @@
         <v>18</v>
       </c>
       <c r="S107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6228,10 +6105,10 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -6261,7 +6138,7 @@
         <v>18</v>
       </c>
       <c r="S108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -6269,10 +6146,10 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -6302,7 +6179,7 @@
         <v>18</v>
       </c>
       <c r="S109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -6310,10 +6187,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -6343,7 +6220,7 @@
         <v>18</v>
       </c>
       <c r="S110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -6351,10 +6228,10 @@
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -6384,7 +6261,7 @@
         <v>15</v>
       </c>
       <c r="S111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -6392,10 +6269,10 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -6425,7 +6302,7 @@
         <v>15</v>
       </c>
       <c r="S112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -6433,34 +6310,16 @@
         <v>999</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>2</v>
-      </c>
-      <c r="K113">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L113" t="s">
-        <v>24</v>
-      </c>
-      <c r="N113">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O113">
-        <v>1</v>
+      <c r="K113" t="s">
+        <v>98</v>
       </c>
       <c r="P113">
         <v>0.84256731719108202</v>
@@ -6472,7 +6331,7 @@
         <v>15</v>
       </c>
       <c r="S113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -6480,10 +6339,10 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -6519,7 +6378,7 @@
         <v>11</v>
       </c>
       <c r="S114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -6527,10 +6386,10 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -6578,7 +6437,7 @@
         <v>11</v>
       </c>
       <c r="S115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -6586,10 +6445,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -6637,7 +6496,7 @@
         <v>15</v>
       </c>
       <c r="S116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -6645,10 +6504,10 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
@@ -6696,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="S117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6704,10 +6563,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -6755,7 +6614,7 @@
         <v>15</v>
       </c>
       <c r="S118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -6763,10 +6622,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
@@ -6814,10 +6673,10 @@
         <v>15</v>
       </c>
       <c r="S119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T119" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6825,10 +6684,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6858,7 +6717,7 @@
         <v>18</v>
       </c>
       <c r="S120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -6866,10 +6725,10 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6899,7 +6758,7 @@
         <v>18</v>
       </c>
       <c r="S121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -6907,10 +6766,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6940,7 +6799,7 @@
         <v>18</v>
       </c>
       <c r="S122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -6948,10 +6807,10 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -6981,7 +6840,7 @@
         <v>18</v>
       </c>
       <c r="S123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -6989,10 +6848,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -7022,7 +6881,7 @@
         <v>18</v>
       </c>
       <c r="S124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -7030,10 +6889,10 @@
         <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -7063,7 +6922,7 @@
         <v>15</v>
       </c>
       <c r="S125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -7071,10 +6930,10 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -7104,7 +6963,7 @@
         <v>15</v>
       </c>
       <c r="S126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -7112,34 +6971,16 @@
         <v>999</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>2</v>
-      </c>
-      <c r="K127">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L127" t="s">
-        <v>24</v>
-      </c>
-      <c r="N127">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O127">
-        <v>1</v>
+      <c r="K127" t="s">
+        <v>98</v>
       </c>
       <c r="P127">
         <v>0.84256731719108202</v>
@@ -7151,7 +6992,7 @@
         <v>15</v>
       </c>
       <c r="S127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -7159,10 +7000,10 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -7198,7 +7039,7 @@
         <v>11</v>
       </c>
       <c r="S128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -7206,10 +7047,10 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -7257,7 +7098,7 @@
         <v>11</v>
       </c>
       <c r="S129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -7265,10 +7106,10 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
@@ -7316,7 +7157,7 @@
         <v>15</v>
       </c>
       <c r="S130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
@@ -7324,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -7375,7 +7216,7 @@
         <v>18</v>
       </c>
       <c r="S131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -7383,10 +7224,10 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
         <v>19</v>
@@ -7434,7 +7275,7 @@
         <v>15</v>
       </c>
       <c r="S132" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
@@ -7442,10 +7283,10 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -7493,10 +7334,10 @@
         <v>15</v>
       </c>
       <c r="S133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T133" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -7504,10 +7345,10 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -7537,7 +7378,7 @@
         <v>18</v>
       </c>
       <c r="S134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -7545,10 +7386,10 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -7578,7 +7419,7 @@
         <v>18</v>
       </c>
       <c r="S135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -7586,10 +7427,10 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -7619,7 +7460,7 @@
         <v>18</v>
       </c>
       <c r="S136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
@@ -7627,10 +7468,10 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7660,7 +7501,7 @@
         <v>18</v>
       </c>
       <c r="S137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -7668,10 +7509,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -7701,7 +7542,7 @@
         <v>18</v>
       </c>
       <c r="S138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -7709,10 +7550,10 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -7742,7 +7583,7 @@
         <v>15</v>
       </c>
       <c r="S139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -7750,10 +7591,10 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -7783,7 +7624,7 @@
         <v>15</v>
       </c>
       <c r="S140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -7791,34 +7632,16 @@
         <v>999</v>
       </c>
       <c r="B141" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>2</v>
-      </c>
-      <c r="K141">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L141" t="s">
-        <v>24</v>
-      </c>
-      <c r="N141">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
+      <c r="K141" t="s">
+        <v>98</v>
       </c>
       <c r="P141">
         <v>0.84256731719108202</v>
@@ -7830,7 +7653,7 @@
         <v>15</v>
       </c>
       <c r="S141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -7838,10 +7661,10 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -7877,7 +7700,7 @@
         <v>11</v>
       </c>
       <c r="S142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -7885,10 +7708,10 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -7936,7 +7759,7 @@
         <v>11</v>
       </c>
       <c r="S143" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -7944,10 +7767,10 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -7995,7 +7818,7 @@
         <v>15</v>
       </c>
       <c r="S144" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -8003,10 +7826,10 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
         <v>16</v>
@@ -8054,7 +7877,7 @@
         <v>18</v>
       </c>
       <c r="S145" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
@@ -8062,10 +7885,10 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D146" t="s">
         <v>19</v>
@@ -8113,7 +7936,7 @@
         <v>15</v>
       </c>
       <c r="S146" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
@@ -8121,10 +7944,10 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
         <v>20</v>
@@ -8172,10 +7995,10 @@
         <v>15</v>
       </c>
       <c r="S147" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T147" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -8183,10 +8006,10 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -8216,7 +8039,7 @@
         <v>18</v>
       </c>
       <c r="S148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
@@ -8224,10 +8047,10 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -8257,7 +8080,7 @@
         <v>18</v>
       </c>
       <c r="S149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
@@ -8265,10 +8088,10 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -8298,7 +8121,7 @@
         <v>18</v>
       </c>
       <c r="S150" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
@@ -8306,10 +8129,10 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -8339,7 +8162,7 @@
         <v>18</v>
       </c>
       <c r="S151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
@@ -8347,10 +8170,10 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -8380,7 +8203,7 @@
         <v>18</v>
       </c>
       <c r="S152" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
@@ -8388,10 +8211,10 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -8421,7 +8244,7 @@
         <v>15</v>
       </c>
       <c r="S153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -8429,10 +8252,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -8462,7 +8285,7 @@
         <v>15</v>
       </c>
       <c r="S154" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
@@ -8470,34 +8293,16 @@
         <v>999</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>2</v>
-      </c>
-      <c r="K155">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L155" t="s">
-        <v>24</v>
-      </c>
-      <c r="N155">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O155">
-        <v>1</v>
+      <c r="K155" t="s">
+        <v>98</v>
       </c>
       <c r="P155">
         <v>0.84256731719108202</v>
@@ -8509,7 +8314,7 @@
         <v>15</v>
       </c>
       <c r="S155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
@@ -8517,10 +8322,10 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
@@ -8556,7 +8361,7 @@
         <v>11</v>
       </c>
       <c r="S156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -8564,10 +8369,10 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -8615,7 +8420,7 @@
         <v>11</v>
       </c>
       <c r="S157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
@@ -8623,10 +8428,10 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
@@ -8674,7 +8479,7 @@
         <v>15</v>
       </c>
       <c r="S158" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
@@ -8682,10 +8487,10 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
@@ -8733,7 +8538,7 @@
         <v>18</v>
       </c>
       <c r="S159" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
@@ -8741,10 +8546,10 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -8792,7 +8597,7 @@
         <v>15</v>
       </c>
       <c r="S160" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
@@ -8800,10 +8605,10 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
@@ -8851,10 +8656,10 @@
         <v>15</v>
       </c>
       <c r="S161" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T161" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -8862,10 +8667,10 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -8895,7 +8700,7 @@
         <v>18</v>
       </c>
       <c r="S162" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -8903,10 +8708,10 @@
         <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -8936,7 +8741,7 @@
         <v>18</v>
       </c>
       <c r="S163" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
@@ -8944,10 +8749,10 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -8977,7 +8782,7 @@
         <v>18</v>
       </c>
       <c r="S164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
@@ -8985,10 +8790,10 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -9018,7 +8823,7 @@
         <v>18</v>
       </c>
       <c r="S165" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
@@ -9026,10 +8831,10 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -9059,7 +8864,7 @@
         <v>18</v>
       </c>
       <c r="S166" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
@@ -9067,10 +8872,10 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -9100,7 +8905,7 @@
         <v>15</v>
       </c>
       <c r="S167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
@@ -9108,10 +8913,10 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -9141,7 +8946,7 @@
         <v>15</v>
       </c>
       <c r="S168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
@@ -9149,34 +8954,16 @@
         <v>999</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
       </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>2</v>
-      </c>
-      <c r="K169">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L169" t="s">
-        <v>24</v>
-      </c>
-      <c r="N169">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O169">
-        <v>1</v>
+      <c r="K169" t="s">
+        <v>98</v>
       </c>
       <c r="P169">
         <v>0.84256731719108202</v>
@@ -9188,7 +8975,7 @@
         <v>15</v>
       </c>
       <c r="S169" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
@@ -9196,10 +8983,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
@@ -9235,7 +9022,7 @@
         <v>11</v>
       </c>
       <c r="S170" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
@@ -9243,10 +9030,10 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -9294,7 +9081,7 @@
         <v>11</v>
       </c>
       <c r="S171" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
@@ -9302,10 +9089,10 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -9353,7 +9140,7 @@
         <v>15</v>
       </c>
       <c r="S172" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
@@ -9361,10 +9148,10 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -9412,7 +9199,7 @@
         <v>18</v>
       </c>
       <c r="S173" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
@@ -9420,10 +9207,10 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -9471,7 +9258,7 @@
         <v>15</v>
       </c>
       <c r="S174" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
@@ -9479,10 +9266,10 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D175" t="s">
         <v>20</v>
@@ -9530,10 +9317,10 @@
         <v>15</v>
       </c>
       <c r="S175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T175" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
@@ -9541,10 +9328,10 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -9574,7 +9361,7 @@
         <v>18</v>
       </c>
       <c r="S176" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
@@ -9582,10 +9369,10 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -9615,7 +9402,7 @@
         <v>18</v>
       </c>
       <c r="S177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
@@ -9623,10 +9410,10 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -9656,7 +9443,7 @@
         <v>18</v>
       </c>
       <c r="S178" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
@@ -9664,10 +9451,10 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -9697,7 +9484,7 @@
         <v>18</v>
       </c>
       <c r="S179" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
@@ -9705,10 +9492,10 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -9738,7 +9525,7 @@
         <v>18</v>
       </c>
       <c r="S180" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
@@ -9746,10 +9533,10 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -9779,7 +9566,7 @@
         <v>15</v>
       </c>
       <c r="S181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
@@ -9787,10 +9574,10 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -9820,7 +9607,7 @@
         <v>15</v>
       </c>
       <c r="S182" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
@@ -9828,34 +9615,16 @@
         <v>999</v>
       </c>
       <c r="B183" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
       </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>2</v>
-      </c>
-      <c r="K183">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L183" t="s">
-        <v>24</v>
-      </c>
-      <c r="N183">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O183">
-        <v>1</v>
+      <c r="K183" t="s">
+        <v>98</v>
       </c>
       <c r="P183">
         <v>0.84256731719108202</v>
@@ -9867,7 +9636,7 @@
         <v>15</v>
       </c>
       <c r="S183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
@@ -9875,10 +9644,10 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -9914,7 +9683,7 @@
         <v>11</v>
       </c>
       <c r="S184" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
@@ -9922,10 +9691,10 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -9973,7 +9742,7 @@
         <v>11</v>
       </c>
       <c r="S185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
@@ -9981,10 +9750,10 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -10032,7 +9801,7 @@
         <v>15</v>
       </c>
       <c r="S186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
@@ -10040,10 +9809,10 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D187" t="s">
         <v>16</v>
@@ -10091,7 +9860,7 @@
         <v>18</v>
       </c>
       <c r="S187" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
@@ -10099,10 +9868,10 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -10150,7 +9919,7 @@
         <v>15</v>
       </c>
       <c r="S188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
@@ -10158,10 +9927,10 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D189" t="s">
         <v>20</v>
@@ -10209,10 +9978,10 @@
         <v>15</v>
       </c>
       <c r="S189" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T189" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
@@ -10220,10 +9989,10 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -10253,7 +10022,7 @@
         <v>18</v>
       </c>
       <c r="S190" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
@@ -10261,10 +10030,10 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -10294,7 +10063,7 @@
         <v>18</v>
       </c>
       <c r="S191" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
@@ -10302,10 +10071,10 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -10335,7 +10104,7 @@
         <v>18</v>
       </c>
       <c r="S192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
@@ -10343,10 +10112,10 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -10376,7 +10145,7 @@
         <v>18</v>
       </c>
       <c r="S193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -10384,10 +10153,10 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -10417,7 +10186,7 @@
         <v>18</v>
       </c>
       <c r="S194" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
@@ -10425,10 +10194,10 @@
         <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -10458,7 +10227,7 @@
         <v>15</v>
       </c>
       <c r="S195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
@@ -10466,10 +10235,10 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -10499,7 +10268,7 @@
         <v>15</v>
       </c>
       <c r="S196" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -10507,34 +10276,16 @@
         <v>999</v>
       </c>
       <c r="B197" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
       </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>2</v>
-      </c>
-      <c r="K197">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L197" t="s">
-        <v>24</v>
-      </c>
-      <c r="N197">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O197">
-        <v>1</v>
+      <c r="K197" t="s">
+        <v>98</v>
       </c>
       <c r="P197">
         <v>0.84256731719108202</v>
@@ -10546,7 +10297,7 @@
         <v>15</v>
       </c>
       <c r="S197" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -10554,10 +10305,10 @@
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -10593,7 +10344,7 @@
         <v>11</v>
       </c>
       <c r="S198" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -10601,10 +10352,10 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
@@ -10652,7 +10403,7 @@
         <v>11</v>
       </c>
       <c r="S199" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -10660,10 +10411,10 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D200" t="s">
         <v>14</v>
@@ -10711,7 +10462,7 @@
         <v>15</v>
       </c>
       <c r="S200" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
@@ -10719,10 +10470,10 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -10770,7 +10521,7 @@
         <v>18</v>
       </c>
       <c r="S201" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -10778,10 +10529,10 @@
         <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -10829,7 +10580,7 @@
         <v>15</v>
       </c>
       <c r="S202" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -10837,10 +10588,10 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D203" t="s">
         <v>20</v>
@@ -10888,10 +10639,10 @@
         <v>15</v>
       </c>
       <c r="S203" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T203" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -10899,10 +10650,10 @@
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -10932,7 +10683,7 @@
         <v>18</v>
       </c>
       <c r="S204" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -10940,10 +10691,10 @@
         <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -10973,7 +10724,7 @@
         <v>18</v>
       </c>
       <c r="S205" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -10981,10 +10732,10 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -11014,7 +10765,7 @@
         <v>18</v>
       </c>
       <c r="S206" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -11022,10 +10773,10 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -11055,7 +10806,7 @@
         <v>18</v>
       </c>
       <c r="S207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -11063,10 +10814,10 @@
         <v>17</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -11096,7 +10847,7 @@
         <v>18</v>
       </c>
       <c r="S208" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
@@ -11104,10 +10855,10 @@
         <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -11137,7 +10888,7 @@
         <v>15</v>
       </c>
       <c r="S209" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
@@ -11145,10 +10896,10 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -11178,7 +10929,7 @@
         <v>15</v>
       </c>
       <c r="S210" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
@@ -11186,34 +10937,16 @@
         <v>999</v>
       </c>
       <c r="B211" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
       </c>
-      <c r="E211">
-        <v>0</v>
-      </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="G211">
-        <v>2</v>
-      </c>
-      <c r="K211">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L211" t="s">
-        <v>24</v>
-      </c>
-      <c r="N211">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O211">
-        <v>1</v>
+      <c r="K211" t="s">
+        <v>98</v>
       </c>
       <c r="P211">
         <v>0.84256731719108202</v>
@@ -11225,7 +10958,7 @@
         <v>15</v>
       </c>
       <c r="S211" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
@@ -11233,10 +10966,10 @@
         <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -11272,7 +11005,7 @@
         <v>11</v>
       </c>
       <c r="S212" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -11280,10 +11013,10 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D213" t="s">
         <v>12</v>
@@ -11331,7 +11064,7 @@
         <v>11</v>
       </c>
       <c r="S213" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
@@ -11339,10 +11072,10 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
@@ -11390,7 +11123,7 @@
         <v>15</v>
       </c>
       <c r="S214" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
@@ -11398,10 +11131,10 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
@@ -11449,7 +11182,7 @@
         <v>18</v>
       </c>
       <c r="S215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
@@ -11457,10 +11190,10 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -11508,7 +11241,7 @@
         <v>15</v>
       </c>
       <c r="S216" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
@@ -11516,10 +11249,10 @@
         <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D217" t="s">
         <v>20</v>
@@ -11567,10 +11300,10 @@
         <v>15</v>
       </c>
       <c r="S217" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T217" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
@@ -11578,10 +11311,10 @@
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -11611,7 +11344,7 @@
         <v>18</v>
       </c>
       <c r="S218" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
@@ -11619,10 +11352,10 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -11652,7 +11385,7 @@
         <v>18</v>
       </c>
       <c r="S219" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
@@ -11660,10 +11393,10 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -11693,7 +11426,7 @@
         <v>18</v>
       </c>
       <c r="S220" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
@@ -11701,10 +11434,10 @@
         <v>16</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -11734,7 +11467,7 @@
         <v>18</v>
       </c>
       <c r="S221" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
@@ -11742,10 +11475,10 @@
         <v>17</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -11775,7 +11508,7 @@
         <v>18</v>
       </c>
       <c r="S222" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
@@ -11783,10 +11516,10 @@
         <v>18</v>
       </c>
       <c r="B223" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -11816,7 +11549,7 @@
         <v>15</v>
       </c>
       <c r="S223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
@@ -11824,10 +11557,10 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -11857,42 +11590,24 @@
         <v>15</v>
       </c>
       <c r="S224" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>999</v>
       </c>
       <c r="B225" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D225" t="s">
         <v>23</v>
       </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225">
-        <v>2</v>
-      </c>
-      <c r="K225">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="L225" t="s">
-        <v>24</v>
-      </c>
-      <c r="N225">
-        <v>0.85838943099256826</v>
-      </c>
-      <c r="O225">
-        <v>1</v>
+      <c r="K225" t="s">
+        <v>98</v>
       </c>
       <c r="P225">
         <v>0.84256731719108202</v>
@@ -11904,7 +11619,1329 @@
         <v>15</v>
       </c>
       <c r="S225" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>52</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226">
+        <v>12</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>12</v>
+      </c>
+      <c r="L226" t="s">
+        <v>10</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226">
+        <v>0.15</v>
+      </c>
+      <c r="P226">
+        <v>0.15</v>
+      </c>
+      <c r="Q226" t="b">
+        <v>1</v>
+      </c>
+      <c r="R226" t="s">
+        <v>11</v>
+      </c>
+      <c r="S226" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>52</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227">
+        <v>-0.02</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0.02</v>
+      </c>
+      <c r="H227">
+        <v>0.5</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="K227">
+        <v>-0.01</v>
+      </c>
+      <c r="L227" t="s">
+        <v>13</v>
+      </c>
+      <c r="M227">
+        <v>0.75</v>
+      </c>
+      <c r="N227">
+        <v>0.75</v>
+      </c>
+      <c r="O227">
+        <v>0.15</v>
+      </c>
+      <c r="P227">
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="Q227" t="b">
+        <v>1</v>
+      </c>
+      <c r="R227" t="s">
+        <v>11</v>
+      </c>
+      <c r="S227" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8</v>
+      </c>
+      <c r="B228" t="s">
+        <v>52</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="F228">
+        <v>0.32138499999999998</v>
+      </c>
+      <c r="G228">
+        <v>0.26466999999999996</v>
+      </c>
+      <c r="H228">
+        <v>0.5</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>2</v>
+      </c>
+      <c r="K228">
+        <v>0.35</v>
+      </c>
+      <c r="L228" t="s">
+        <v>13</v>
+      </c>
+      <c r="M228">
+        <v>0.74772987745746278</v>
+      </c>
+      <c r="N228">
+        <v>0.74772987745746278</v>
+      </c>
+      <c r="O228">
+        <v>0.2</v>
+      </c>
+      <c r="P228">
+        <v>0.14954597549149257</v>
+      </c>
+      <c r="Q228" t="b">
+        <v>1</v>
+      </c>
+      <c r="R228" t="s">
+        <v>15</v>
+      </c>
+      <c r="S228" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>52</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D229" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229">
+        <v>8606</v>
+      </c>
+      <c r="F229">
+        <v>9896.9</v>
+      </c>
+      <c r="G229">
+        <v>11187.800000000001</v>
+      </c>
+      <c r="H229">
+        <v>0.5</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>2</v>
+      </c>
+      <c r="K229">
+        <v>9000</v>
+      </c>
+      <c r="L229" t="s">
+        <v>17</v>
+      </c>
+      <c r="M229">
+        <v>0.65260670849794722</v>
+      </c>
+      <c r="N229">
+        <v>0.65260670849794722</v>
+      </c>
+      <c r="O229">
+        <v>0.2</v>
+      </c>
+      <c r="P229">
+        <v>0.13052134169958945</v>
+      </c>
+      <c r="Q229" t="b">
+        <v>1</v>
+      </c>
+      <c r="R229" t="s">
+        <v>18</v>
+      </c>
+      <c r="S229" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>10</v>
+      </c>
+      <c r="B230" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D230" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230">
+        <v>0.8</v>
+      </c>
+      <c r="F230">
+        <v>0.85</v>
+      </c>
+      <c r="G230">
+        <v>0.9</v>
+      </c>
+      <c r="H230">
+        <v>0.5</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>2</v>
+      </c>
+      <c r="K230">
+        <v>0.85</v>
+      </c>
+      <c r="L230" t="s">
+        <v>17</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230">
+        <v>0.15</v>
+      </c>
+      <c r="P230">
+        <v>0.15</v>
+      </c>
+      <c r="Q230" t="b">
+        <v>1</v>
+      </c>
+      <c r="R230" t="s">
+        <v>15</v>
+      </c>
+      <c r="S230" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231">
+        <v>0.05</v>
+      </c>
+      <c r="F231">
+        <v>0.1</v>
+      </c>
+      <c r="G231">
+        <v>0.15</v>
+      </c>
+      <c r="H231">
+        <v>0.5</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>2</v>
+      </c>
+      <c r="K231">
+        <v>0.1</v>
+      </c>
+      <c r="L231" t="s">
+        <v>21</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231">
+        <v>0.15</v>
+      </c>
+      <c r="P231">
+        <v>0.15</v>
+      </c>
+      <c r="Q231" t="b">
+        <v>1</v>
+      </c>
+      <c r="R231" t="s">
+        <v>15</v>
+      </c>
+      <c r="S231" t="s">
+        <v>90</v>
+      </c>
+      <c r="T231" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>12</v>
+      </c>
+      <c r="B232" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0.5</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q232" t="b">
+        <v>0</v>
+      </c>
+      <c r="R232" t="s">
+        <v>18</v>
+      </c>
+      <c r="S232" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>52</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0.5</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>2</v>
+      </c>
+      <c r="N233" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q233" t="b">
+        <v>0</v>
+      </c>
+      <c r="R233" t="s">
+        <v>18</v>
+      </c>
+      <c r="S233" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>15</v>
+      </c>
+      <c r="B234" t="s">
+        <v>52</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0.5</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
+        <v>2</v>
+      </c>
+      <c r="N234" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q234" t="b">
+        <v>0</v>
+      </c>
+      <c r="R234" t="s">
+        <v>18</v>
+      </c>
+      <c r="S234" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>16</v>
+      </c>
+      <c r="B235" t="s">
+        <v>52</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0.5</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q235" t="b">
+        <v>0</v>
+      </c>
+      <c r="R235" t="s">
+        <v>18</v>
+      </c>
+      <c r="S235" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>17</v>
+      </c>
+      <c r="B236" t="s">
+        <v>52</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0.5</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q236" t="b">
+        <v>0</v>
+      </c>
+      <c r="R236" t="s">
+        <v>18</v>
+      </c>
+      <c r="S236" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>18</v>
+      </c>
+      <c r="B237" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0.5</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>2</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q237" t="b">
+        <v>0</v>
+      </c>
+      <c r="R237" t="s">
+        <v>15</v>
+      </c>
+      <c r="S237" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>52</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0.5</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q238" t="b">
+        <v>0</v>
+      </c>
+      <c r="R238" t="s">
+        <v>15</v>
+      </c>
+      <c r="S238" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>999</v>
+      </c>
+      <c r="B239" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D239" t="s">
+        <v>23</v>
+      </c>
+      <c r="K239" t="s">
         <v>98</v>
+      </c>
+      <c r="P239">
+        <v>0.84256731719108202</v>
+      </c>
+      <c r="Q239" t="b">
+        <v>1</v>
+      </c>
+      <c r="R239" t="s">
+        <v>15</v>
+      </c>
+      <c r="S239" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>54</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240">
+        <v>12</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>12</v>
+      </c>
+      <c r="L240" t="s">
+        <v>10</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240">
+        <v>0.15</v>
+      </c>
+      <c r="P240">
+        <v>0.15</v>
+      </c>
+      <c r="Q240" t="b">
+        <v>1</v>
+      </c>
+      <c r="R240" t="s">
+        <v>11</v>
+      </c>
+      <c r="S240" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>54</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241">
+        <v>-0.02</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0.02</v>
+      </c>
+      <c r="H241">
+        <v>0.5</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>2</v>
+      </c>
+      <c r="K241">
+        <v>-0.01</v>
+      </c>
+      <c r="L241" t="s">
+        <v>13</v>
+      </c>
+      <c r="M241">
+        <v>0.75</v>
+      </c>
+      <c r="N241">
+        <v>0.75</v>
+      </c>
+      <c r="O241">
+        <v>0.15</v>
+      </c>
+      <c r="P241">
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="Q241" t="b">
+        <v>1</v>
+      </c>
+      <c r="R241" t="s">
+        <v>11</v>
+      </c>
+      <c r="S241" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>8</v>
+      </c>
+      <c r="B242" t="s">
+        <v>54</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="F242">
+        <v>0.32138499999999998</v>
+      </c>
+      <c r="G242">
+        <v>0.26466999999999996</v>
+      </c>
+      <c r="H242">
+        <v>0.5</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>2</v>
+      </c>
+      <c r="K242">
+        <v>0.35</v>
+      </c>
+      <c r="L242" t="s">
+        <v>13</v>
+      </c>
+      <c r="M242">
+        <v>0.74772987745746278</v>
+      </c>
+      <c r="N242">
+        <v>0.74772987745746278</v>
+      </c>
+      <c r="O242">
+        <v>0.2</v>
+      </c>
+      <c r="P242">
+        <v>0.14954597549149257</v>
+      </c>
+      <c r="Q242" t="b">
+        <v>1</v>
+      </c>
+      <c r="R242" t="s">
+        <v>15</v>
+      </c>
+      <c r="S242" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>54</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D243" t="s">
+        <v>16</v>
+      </c>
+      <c r="E243">
+        <v>8606</v>
+      </c>
+      <c r="F243">
+        <v>9896.9</v>
+      </c>
+      <c r="G243">
+        <v>11187.800000000001</v>
+      </c>
+      <c r="H243">
+        <v>0.5</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>2</v>
+      </c>
+      <c r="K243">
+        <v>9000</v>
+      </c>
+      <c r="L243" t="s">
+        <v>17</v>
+      </c>
+      <c r="M243">
+        <v>0.65260670849794722</v>
+      </c>
+      <c r="N243">
+        <v>0.65260670849794722</v>
+      </c>
+      <c r="O243">
+        <v>0.2</v>
+      </c>
+      <c r="P243">
+        <v>0.13052134169958945</v>
+      </c>
+      <c r="Q243" t="b">
+        <v>1</v>
+      </c>
+      <c r="R243" t="s">
+        <v>18</v>
+      </c>
+      <c r="S243" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>10</v>
+      </c>
+      <c r="B244" t="s">
+        <v>54</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D244" t="s">
+        <v>19</v>
+      </c>
+      <c r="E244">
+        <v>0.8</v>
+      </c>
+      <c r="F244">
+        <v>0.85</v>
+      </c>
+      <c r="G244">
+        <v>0.9</v>
+      </c>
+      <c r="H244">
+        <v>0.5</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>2</v>
+      </c>
+      <c r="K244">
+        <v>0.85</v>
+      </c>
+      <c r="L244" t="s">
+        <v>17</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244">
+        <v>0.15</v>
+      </c>
+      <c r="P244">
+        <v>0.15</v>
+      </c>
+      <c r="Q244" t="b">
+        <v>1</v>
+      </c>
+      <c r="R244" t="s">
+        <v>15</v>
+      </c>
+      <c r="S244" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>54</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D245" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245">
+        <v>0.05</v>
+      </c>
+      <c r="F245">
+        <v>0.1</v>
+      </c>
+      <c r="G245">
+        <v>0.15</v>
+      </c>
+      <c r="H245">
+        <v>0.5</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>2</v>
+      </c>
+      <c r="K245">
+        <v>0.1</v>
+      </c>
+      <c r="L245" t="s">
+        <v>21</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245">
+        <v>0.15</v>
+      </c>
+      <c r="P245">
+        <v>0.15</v>
+      </c>
+      <c r="Q245" t="b">
+        <v>1</v>
+      </c>
+      <c r="R245" t="s">
+        <v>15</v>
+      </c>
+      <c r="S245" t="s">
+        <v>90</v>
+      </c>
+      <c r="T245" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>12</v>
+      </c>
+      <c r="B246" t="s">
+        <v>54</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0.5</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+      <c r="N246" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q246" t="b">
+        <v>0</v>
+      </c>
+      <c r="R246" t="s">
+        <v>18</v>
+      </c>
+      <c r="S246" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>54</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0.5</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q247" t="b">
+        <v>0</v>
+      </c>
+      <c r="R247" t="s">
+        <v>18</v>
+      </c>
+      <c r="S247" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>54</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0.5</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+      <c r="N248" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q248" t="b">
+        <v>0</v>
+      </c>
+      <c r="R248" t="s">
+        <v>18</v>
+      </c>
+      <c r="S248" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>16</v>
+      </c>
+      <c r="B249" t="s">
+        <v>54</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0.5</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q249" t="b">
+        <v>0</v>
+      </c>
+      <c r="R249" t="s">
+        <v>18</v>
+      </c>
+      <c r="S249" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>17</v>
+      </c>
+      <c r="B250" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0.5</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>2</v>
+      </c>
+      <c r="N250" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q250" t="b">
+        <v>0</v>
+      </c>
+      <c r="R250" t="s">
+        <v>18</v>
+      </c>
+      <c r="S250" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0.5</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>2</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q251" t="b">
+        <v>0</v>
+      </c>
+      <c r="R251" t="s">
+        <v>15</v>
+      </c>
+      <c r="S251" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>54</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0.5</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>2</v>
+      </c>
+      <c r="N252" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q252" t="b">
+        <v>0</v>
+      </c>
+      <c r="R252" t="s">
+        <v>15</v>
+      </c>
+      <c r="S252" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>999</v>
+      </c>
+      <c r="B253" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D253" t="s">
+        <v>23</v>
+      </c>
+      <c r="K253" t="s">
+        <v>98</v>
+      </c>
+      <c r="P253">
+        <v>0.84256731719108202</v>
+      </c>
+      <c r="Q253" t="b">
+        <v>1</v>
+      </c>
+      <c r="R253" t="s">
+        <v>15</v>
+      </c>
+      <c r="S253" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -11925,25 +12962,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11951,7 +12988,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -11974,7 +13011,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -11997,7 +13034,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -12020,7 +13057,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -12043,7 +13080,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12051,10 +13088,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>5000</v>
@@ -12074,10 +13111,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>5000</v>
@@ -12097,10 +13134,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -12120,10 +13157,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>5000</v>
@@ -12143,10 +13180,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -12166,10 +13203,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12">
         <v>0.9</v>
@@ -12177,10 +13214,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -12200,10 +13237,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>5000</v>
@@ -12223,10 +13260,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>5000</v>
@@ -12246,10 +13283,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -12269,10 +13306,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -12283,7 +13320,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>5000</v>
@@ -12306,7 +13343,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>5000</v>
@@ -12329,7 +13366,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -12352,7 +13389,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>5000</v>
@@ -12375,7 +13412,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -12383,10 +13420,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>5000</v>
@@ -12406,10 +13443,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>5000</v>
@@ -12429,10 +13466,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>5000</v>
@@ -12452,10 +13489,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>5000</v>
@@ -12475,10 +13512,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -12486,10 +13523,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>5000</v>
@@ -12509,10 +13546,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>5000</v>
@@ -12532,10 +13569,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>5000</v>
@@ -12555,10 +13592,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>5000</v>
@@ -12578,10 +13615,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -12589,10 +13626,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>5000</v>
@@ -12612,10 +13649,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>5000</v>
@@ -12635,10 +13672,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>5000</v>
@@ -12658,10 +13695,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>5000</v>
@@ -12681,10 +13718,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12692,10 +13729,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>5000</v>
@@ -12715,10 +13752,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39">
         <v>5000</v>
@@ -12738,10 +13775,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -12761,10 +13798,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <v>5000</v>
@@ -12784,10 +13821,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -12795,10 +13832,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>5000</v>
@@ -12818,10 +13855,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>5000</v>
@@ -12841,10 +13878,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>5000</v>
@@ -12864,10 +13901,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>5000</v>
@@ -12887,10 +13924,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>5000</v>
@@ -12910,10 +13947,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G48">
         <v>0.9</v>
@@ -12921,10 +13958,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>5000</v>
@@ -12944,10 +13981,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>5000</v>
@@ -12967,10 +14004,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>5000</v>
@@ -12990,10 +14027,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>5000</v>
@@ -13013,10 +14050,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -13024,10 +14061,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>5000</v>
@@ -13047,10 +14084,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>5000</v>
@@ -13070,10 +14107,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>5000</v>
@@ -13093,10 +14130,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>5000</v>
@@ -13116,10 +14153,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>5000</v>
@@ -13139,10 +14176,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59">
         <v>0.9</v>
@@ -13150,10 +14187,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>5000</v>
@@ -13173,10 +14210,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>5000</v>
@@ -13196,10 +14233,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>5000</v>
@@ -13219,10 +14256,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>5000</v>
@@ -13242,10 +14279,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -13253,10 +14290,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>5000</v>
@@ -13276,10 +14313,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>5000</v>
@@ -13299,10 +14336,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67">
         <v>5000</v>
@@ -13322,10 +14359,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>5000</v>
@@ -13345,10 +14382,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69">
         <v>5000</v>
@@ -13368,10 +14405,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G70">
         <v>0.9</v>
@@ -13379,10 +14416,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C71">
         <v>5000</v>
@@ -13402,10 +14439,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72">
         <v>5000</v>
@@ -13425,10 +14462,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73">
         <v>5000</v>
@@ -13448,10 +14485,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74">
         <v>5000</v>
@@ -13471,10 +14508,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -13482,10 +14519,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76">
         <v>5000</v>
@@ -13505,10 +14542,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77">
         <v>5000</v>
@@ -13528,10 +14565,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78">
         <v>5000</v>
@@ -13551,10 +14588,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79">
         <v>5000</v>
@@ -13574,10 +14611,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -13585,10 +14622,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C81">
         <v>5000</v>
@@ -13608,10 +14645,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C82">
         <v>5000</v>
@@ -13631,10 +14668,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83">
         <v>5000</v>
@@ -13654,10 +14691,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C84">
         <v>5000</v>
@@ -13677,10 +14714,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -13711,26 +14748,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13743,18 +14780,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13770,87 +14807,87 @@
         <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/UploadedFiles/Incentive Raw Data-Logi.xlsx
+++ b/UploadedFiles/Incentive Raw Data-Logi.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="100">
   <si>
     <t>Location Metric</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total Payout based on Average Location Performance:</t>
   </si>
   <si>
     <t>Alta Vista</t>
@@ -986,43 +989,43 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N1" t="s">
         <v>3</v>
@@ -1031,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
@@ -1043,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1090,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1149,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1208,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1267,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1326,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1385,7 +1388,7 @@
         <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T7" s="10" t="s">
         <v>8</v>
@@ -1429,7 +1432,7 @@
         <v>18</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1470,7 +1473,7 @@
         <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1511,7 +1514,7 @@
         <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1552,7 +1555,7 @@
         <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1593,7 +1596,7 @@
         <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1634,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1675,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="S14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1692,7 +1695,10 @@
         <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
       </c>
       <c r="P15">
         <v>0.84256731719108202</v>
@@ -1704,7 +1710,7 @@
         <v>15</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1712,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -1751,7 +1757,7 @@
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1759,10 +1765,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1810,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="S17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1818,10 +1824,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1869,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="S18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1877,10 +1883,10 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1928,7 +1934,7 @@
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1936,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1987,7 +1993,7 @@
         <v>15</v>
       </c>
       <c r="S20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1995,10 +2001,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -2046,10 +2052,10 @@
         <v>15</v>
       </c>
       <c r="S21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2057,10 +2063,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2090,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2098,10 +2104,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2131,7 +2137,7 @@
         <v>18</v>
       </c>
       <c r="S23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2139,10 +2145,10 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2172,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="S24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2180,10 +2186,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2213,7 +2219,7 @@
         <v>18</v>
       </c>
       <c r="S25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2221,10 +2227,10 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2254,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="S26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2262,10 +2268,10 @@
         <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2295,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -2303,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2336,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="S28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -2344,16 +2350,19 @@
         <v>999</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
       </c>
       <c r="P29">
         <v>0.84256731719108202</v>
@@ -2365,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -2373,10 +2382,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -2412,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="S30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2420,10 +2429,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -2471,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="S31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -2479,10 +2488,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -2530,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="S32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -2538,10 +2547,10 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2589,7 +2598,7 @@
         <v>18</v>
       </c>
       <c r="S33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -2597,10 +2606,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2648,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="S34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -2656,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2707,10 +2716,10 @@
         <v>15</v>
       </c>
       <c r="S35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T35" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -2718,10 +2727,10 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2751,7 +2760,7 @@
         <v>18</v>
       </c>
       <c r="S36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -2759,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2792,7 +2801,7 @@
         <v>18</v>
       </c>
       <c r="S37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -2800,10 +2809,10 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2833,7 +2842,7 @@
         <v>18</v>
       </c>
       <c r="S38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -2841,10 +2850,10 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2874,7 +2883,7 @@
         <v>18</v>
       </c>
       <c r="S39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2882,10 +2891,10 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2915,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="S40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2923,10 +2932,10 @@
         <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2956,7 +2965,7 @@
         <v>15</v>
       </c>
       <c r="S41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -2964,10 +2973,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2997,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="S42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3005,16 +3014,19 @@
         <v>999</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
       </c>
       <c r="P43">
         <v>0.84256731719108202</v>
@@ -3026,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="S43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3034,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="10">
         <v>220</v>
@@ -3073,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="S44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3081,7 +3093,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" s="10">
         <v>220</v>
@@ -3132,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="S45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -3140,7 +3152,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="10">
         <v>220</v>
@@ -3191,7 +3203,7 @@
         <v>15</v>
       </c>
       <c r="S46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -3199,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="10">
         <v>220</v>
@@ -3250,7 +3262,7 @@
         <v>18</v>
       </c>
       <c r="S47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -3258,7 +3270,7 @@
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C48" s="10">
         <v>220</v>
@@ -3309,7 +3321,7 @@
         <v>15</v>
       </c>
       <c r="S48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3317,7 +3329,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C49" s="10">
         <v>220</v>
@@ -3368,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="S49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T49" s="10">
         <v>220</v>
@@ -3379,7 +3391,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" s="10">
         <v>220</v>
@@ -3412,7 +3424,7 @@
         <v>18</v>
       </c>
       <c r="S50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -3420,7 +3432,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="10">
         <v>220</v>
@@ -3453,7 +3465,7 @@
         <v>18</v>
       </c>
       <c r="S51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -3461,7 +3473,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="10">
         <v>220</v>
@@ -3494,7 +3506,7 @@
         <v>18</v>
       </c>
       <c r="S52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -3502,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" s="10">
         <v>220</v>
@@ -3535,7 +3547,7 @@
         <v>18</v>
       </c>
       <c r="S53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -3543,7 +3555,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" s="10">
         <v>220</v>
@@ -3576,7 +3588,7 @@
         <v>18</v>
       </c>
       <c r="S54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -3584,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="10">
         <v>220</v>
@@ -3617,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="S55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -3625,7 +3637,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" s="10">
         <v>220</v>
@@ -3658,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="S56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -3666,7 +3678,7 @@
         <v>999</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" s="10">
         <v>220</v>
@@ -3675,7 +3687,10 @@
         <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L57" t="s">
+        <v>24</v>
       </c>
       <c r="P57">
         <v>0.84256731719108202</v>
@@ -3687,7 +3702,7 @@
         <v>15</v>
       </c>
       <c r="S57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -3695,10 +3710,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -3734,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="S58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -3742,10 +3757,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3793,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="S59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -3801,10 +3816,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -3852,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="S60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -3860,10 +3875,10 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -3911,7 +3926,7 @@
         <v>18</v>
       </c>
       <c r="S61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -3919,10 +3934,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
@@ -3970,7 +3985,7 @@
         <v>15</v>
       </c>
       <c r="S62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -3978,10 +3993,10 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -4029,10 +4044,10 @@
         <v>15</v>
       </c>
       <c r="S63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T63" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4040,10 +4055,10 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4073,7 +4088,7 @@
         <v>18</v>
       </c>
       <c r="S64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -4081,10 +4096,10 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4114,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="S65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -4122,10 +4137,10 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4155,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="S66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -4163,10 +4178,10 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4196,7 +4211,7 @@
         <v>18</v>
       </c>
       <c r="S67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -4204,10 +4219,10 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4237,7 +4252,7 @@
         <v>18</v>
       </c>
       <c r="S68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -4245,10 +4260,10 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -4278,7 +4293,7 @@
         <v>15</v>
       </c>
       <c r="S69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
@@ -4286,10 +4301,10 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4319,7 +4334,7 @@
         <v>15</v>
       </c>
       <c r="S70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
@@ -4327,16 +4342,19 @@
         <v>999</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
       </c>
       <c r="P71">
         <v>0.84256731719108202</v>
@@ -4348,7 +4366,7 @@
         <v>15</v>
       </c>
       <c r="S71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4356,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C72" s="10">
         <v>360</v>
@@ -4395,7 +4413,7 @@
         <v>11</v>
       </c>
       <c r="S72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4403,7 +4421,7 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C73" s="10">
         <v>360</v>
@@ -4454,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="S73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
@@ -4462,7 +4480,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C74" s="10">
         <v>360</v>
@@ -4513,7 +4531,7 @@
         <v>15</v>
       </c>
       <c r="S74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
@@ -4521,7 +4539,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C75" s="10">
         <v>360</v>
@@ -4572,7 +4590,7 @@
         <v>18</v>
       </c>
       <c r="S75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -4580,7 +4598,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C76" s="10">
         <v>360</v>
@@ -4631,7 +4649,7 @@
         <v>15</v>
       </c>
       <c r="S76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -4639,7 +4657,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C77" s="10">
         <v>360</v>
@@ -4690,7 +4708,7 @@
         <v>15</v>
       </c>
       <c r="S77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T77" s="10">
         <v>360</v>
@@ -4701,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78" s="10">
         <v>360</v>
@@ -4734,7 +4752,7 @@
         <v>18</v>
       </c>
       <c r="S78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
@@ -4742,7 +4760,7 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79" s="10">
         <v>360</v>
@@ -4775,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="S79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -4783,7 +4801,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" s="10">
         <v>360</v>
@@ -4816,7 +4834,7 @@
         <v>18</v>
       </c>
       <c r="S80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -4824,7 +4842,7 @@
         <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" s="10">
         <v>360</v>
@@ -4857,7 +4875,7 @@
         <v>18</v>
       </c>
       <c r="S81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
@@ -4865,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C82" s="10">
         <v>360</v>
@@ -4898,7 +4916,7 @@
         <v>18</v>
       </c>
       <c r="S82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
@@ -4906,7 +4924,7 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" s="10">
         <v>360</v>
@@ -4939,7 +4957,7 @@
         <v>15</v>
       </c>
       <c r="S83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -4947,7 +4965,7 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84" s="10">
         <v>360</v>
@@ -4980,7 +4998,7 @@
         <v>15</v>
       </c>
       <c r="S84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -4988,7 +5006,7 @@
         <v>999</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C85" s="10">
         <v>360</v>
@@ -4997,7 +5015,10 @@
         <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L85" t="s">
+        <v>24</v>
       </c>
       <c r="P85">
         <v>0.84256731719108202</v>
@@ -5009,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="S85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -5017,10 +5038,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -5056,7 +5077,7 @@
         <v>11</v>
       </c>
       <c r="S86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -5064,10 +5085,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -5115,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="S87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -5123,10 +5144,10 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -5174,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="S88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
@@ -5182,10 +5203,10 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -5233,7 +5254,7 @@
         <v>18</v>
       </c>
       <c r="S89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -5241,10 +5262,10 @@
         <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -5292,7 +5313,7 @@
         <v>15</v>
       </c>
       <c r="S90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -5300,10 +5321,10 @@
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
@@ -5351,10 +5372,10 @@
         <v>15</v>
       </c>
       <c r="S91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T91" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -5362,10 +5383,10 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5395,7 +5416,7 @@
         <v>18</v>
       </c>
       <c r="S92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -5403,10 +5424,10 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5436,7 +5457,7 @@
         <v>18</v>
       </c>
       <c r="S93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -5444,10 +5465,10 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -5477,7 +5498,7 @@
         <v>18</v>
       </c>
       <c r="S94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -5485,10 +5506,10 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5518,7 +5539,7 @@
         <v>18</v>
       </c>
       <c r="S95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -5526,10 +5547,10 @@
         <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -5559,7 +5580,7 @@
         <v>18</v>
       </c>
       <c r="S96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -5567,10 +5588,10 @@
         <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5600,7 +5621,7 @@
         <v>15</v>
       </c>
       <c r="S97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -5608,10 +5629,10 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5641,7 +5662,7 @@
         <v>15</v>
       </c>
       <c r="S98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
@@ -5649,16 +5670,19 @@
         <v>999</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L99" t="s">
+        <v>24</v>
       </c>
       <c r="P99">
         <v>0.84256731719108202</v>
@@ -5670,7 +5694,7 @@
         <v>15</v>
       </c>
       <c r="S99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
@@ -5678,10 +5702,10 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -5717,7 +5741,7 @@
         <v>11</v>
       </c>
       <c r="S100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
@@ -5725,10 +5749,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -5776,7 +5800,7 @@
         <v>11</v>
       </c>
       <c r="S101" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -5784,10 +5808,10 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -5835,7 +5859,7 @@
         <v>15</v>
       </c>
       <c r="S102" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
@@ -5843,10 +5867,10 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
         <v>16</v>
@@ -5894,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="S103" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -5902,10 +5926,10 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -5953,7 +5977,7 @@
         <v>15</v>
       </c>
       <c r="S104" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
@@ -5961,10 +5985,10 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
@@ -6012,10 +6036,10 @@
         <v>15</v>
       </c>
       <c r="S105" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T105" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6023,10 +6047,10 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -6056,7 +6080,7 @@
         <v>18</v>
       </c>
       <c r="S106" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6064,10 +6088,10 @@
         <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -6097,7 +6121,7 @@
         <v>18</v>
       </c>
       <c r="S107" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6105,10 +6129,10 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -6138,7 +6162,7 @@
         <v>18</v>
       </c>
       <c r="S108" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -6146,10 +6170,10 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -6179,7 +6203,7 @@
         <v>18</v>
       </c>
       <c r="S109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -6187,10 +6211,10 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -6220,7 +6244,7 @@
         <v>18</v>
       </c>
       <c r="S110" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -6228,10 +6252,10 @@
         <v>18</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -6261,7 +6285,7 @@
         <v>15</v>
       </c>
       <c r="S111" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -6269,10 +6293,10 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -6302,7 +6326,7 @@
         <v>15</v>
       </c>
       <c r="S112" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -6310,16 +6334,19 @@
         <v>999</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L113" t="s">
+        <v>24</v>
       </c>
       <c r="P113">
         <v>0.84256731719108202</v>
@@ -6331,7 +6358,7 @@
         <v>15</v>
       </c>
       <c r="S113" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -6339,10 +6366,10 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -6378,7 +6405,7 @@
         <v>11</v>
       </c>
       <c r="S114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -6386,10 +6413,10 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -6437,7 +6464,7 @@
         <v>11</v>
       </c>
       <c r="S115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -6445,10 +6472,10 @@
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
@@ -6496,7 +6523,7 @@
         <v>15</v>
       </c>
       <c r="S116" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -6504,10 +6531,10 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
@@ -6555,7 +6582,7 @@
         <v>18</v>
       </c>
       <c r="S117" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
@@ -6563,10 +6590,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -6614,7 +6641,7 @@
         <v>15</v>
       </c>
       <c r="S118" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
@@ -6622,10 +6649,10 @@
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
@@ -6673,10 +6700,10 @@
         <v>15</v>
       </c>
       <c r="S119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T119" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
@@ -6684,10 +6711,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6717,7 +6744,7 @@
         <v>18</v>
       </c>
       <c r="S120" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
@@ -6725,10 +6752,10 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6758,7 +6785,7 @@
         <v>18</v>
       </c>
       <c r="S121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
@@ -6766,10 +6793,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6799,7 +6826,7 @@
         <v>18</v>
       </c>
       <c r="S122" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -6807,10 +6834,10 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -6840,7 +6867,7 @@
         <v>18</v>
       </c>
       <c r="S123" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
@@ -6848,10 +6875,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6881,7 +6908,7 @@
         <v>18</v>
       </c>
       <c r="S124" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
@@ -6889,10 +6916,10 @@
         <v>18</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -6922,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="S125" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
@@ -6930,10 +6957,10 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -6963,7 +6990,7 @@
         <v>15</v>
       </c>
       <c r="S126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
@@ -6971,16 +6998,19 @@
         <v>999</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
       </c>
       <c r="K127" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L127" t="s">
+        <v>24</v>
       </c>
       <c r="P127">
         <v>0.84256731719108202</v>
@@ -6992,7 +7022,7 @@
         <v>15</v>
       </c>
       <c r="S127" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
@@ -7000,10 +7030,10 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -7039,7 +7069,7 @@
         <v>11</v>
       </c>
       <c r="S128" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
@@ -7047,10 +7077,10 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -7098,7 +7128,7 @@
         <v>11</v>
       </c>
       <c r="S129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
@@ -7106,10 +7136,10 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
@@ -7157,7 +7187,7 @@
         <v>15</v>
       </c>
       <c r="S130" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
@@ -7165,10 +7195,10 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
         <v>16</v>
@@ -7216,7 +7246,7 @@
         <v>18</v>
       </c>
       <c r="S131" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
@@ -7224,10 +7254,10 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
         <v>19</v>
@@ -7275,7 +7305,7 @@
         <v>15</v>
       </c>
       <c r="S132" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
@@ -7283,10 +7313,10 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
         <v>20</v>
@@ -7334,10 +7364,10 @@
         <v>15</v>
       </c>
       <c r="S133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T133" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
@@ -7345,10 +7375,10 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -7378,7 +7408,7 @@
         <v>18</v>
       </c>
       <c r="S134" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
@@ -7386,10 +7416,10 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -7419,7 +7449,7 @@
         <v>18</v>
       </c>
       <c r="S135" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
@@ -7427,10 +7457,10 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -7460,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="S136" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
@@ -7468,10 +7498,10 @@
         <v>16</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -7501,7 +7531,7 @@
         <v>18</v>
       </c>
       <c r="S137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
@@ -7509,10 +7539,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -7542,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="S138" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
@@ -7550,10 +7580,10 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -7583,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="S139" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
@@ -7591,10 +7621,10 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -7624,7 +7654,7 @@
         <v>15</v>
       </c>
       <c r="S140" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
@@ -7632,16 +7662,19 @@
         <v>999</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
       </c>
       <c r="K141" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L141" t="s">
+        <v>24</v>
       </c>
       <c r="P141">
         <v>0.84256731719108202</v>
@@ -7653,7 +7686,7 @@
         <v>15</v>
       </c>
       <c r="S141" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -7661,10 +7694,10 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -7700,7 +7733,7 @@
         <v>11</v>
       </c>
       <c r="S142" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
@@ -7708,10 +7741,10 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -7759,7 +7792,7 @@
         <v>11</v>
       </c>
       <c r="S143" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
@@ -7767,10 +7800,10 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -7818,7 +7851,7 @@
         <v>15</v>
       </c>
       <c r="S144" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
@@ -7826,10 +7859,10 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D145" t="s">
         <v>16</v>
@@ -7877,7 +7910,7 @@
         <v>18</v>
       </c>
       <c r="S145" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
@@ -7885,10 +7918,10 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D146" t="s">
         <v>19</v>
@@ -7936,7 +7969,7 @@
         <v>15</v>
       </c>
       <c r="S146" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
@@ -7944,10 +7977,10 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
         <v>20</v>
@@ -7995,10 +8028,10 @@
         <v>15</v>
       </c>
       <c r="S147" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T147" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
@@ -8006,10 +8039,10 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -8039,7 +8072,7 @@
         <v>18</v>
       </c>
       <c r="S148" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
@@ -8047,10 +8080,10 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -8080,7 +8113,7 @@
         <v>18</v>
       </c>
       <c r="S149" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
@@ -8088,10 +8121,10 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -8121,7 +8154,7 @@
         <v>18</v>
       </c>
       <c r="S150" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
@@ -8129,10 +8162,10 @@
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -8162,7 +8195,7 @@
         <v>18</v>
       </c>
       <c r="S151" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
@@ -8170,10 +8203,10 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -8203,7 +8236,7 @@
         <v>18</v>
       </c>
       <c r="S152" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
@@ -8211,10 +8244,10 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -8244,7 +8277,7 @@
         <v>15</v>
       </c>
       <c r="S153" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
@@ -8252,10 +8285,10 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -8285,7 +8318,7 @@
         <v>15</v>
       </c>
       <c r="S154" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
@@ -8293,16 +8326,19 @@
         <v>999</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
         <v>23</v>
       </c>
       <c r="K155" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L155" t="s">
+        <v>24</v>
       </c>
       <c r="P155">
         <v>0.84256731719108202</v>
@@ -8314,7 +8350,7 @@
         <v>15</v>
       </c>
       <c r="S155" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
@@ -8322,10 +8358,10 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D156" t="s">
         <v>9</v>
@@ -8361,7 +8397,7 @@
         <v>11</v>
       </c>
       <c r="S156" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
@@ -8369,10 +8405,10 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -8420,7 +8456,7 @@
         <v>11</v>
       </c>
       <c r="S157" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
@@ -8428,10 +8464,10 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D158" t="s">
         <v>14</v>
@@ -8479,7 +8515,7 @@
         <v>15</v>
       </c>
       <c r="S158" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
@@ -8487,10 +8523,10 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
@@ -8538,7 +8574,7 @@
         <v>18</v>
       </c>
       <c r="S159" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
@@ -8546,10 +8582,10 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D160" t="s">
         <v>19</v>
@@ -8597,7 +8633,7 @@
         <v>15</v>
       </c>
       <c r="S160" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
@@ -8605,10 +8641,10 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
         <v>20</v>
@@ -8656,10 +8692,10 @@
         <v>15</v>
       </c>
       <c r="S161" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T161" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
@@ -8667,10 +8703,10 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -8700,7 +8736,7 @@
         <v>18</v>
       </c>
       <c r="S162" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
@@ -8708,10 +8744,10 @@
         <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -8741,7 +8777,7 @@
         <v>18</v>
       </c>
       <c r="S163" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
@@ -8749,10 +8785,10 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -8782,7 +8818,7 @@
         <v>18</v>
       </c>
       <c r="S164" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
@@ -8790,10 +8826,10 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -8823,7 +8859,7 @@
         <v>18</v>
       </c>
       <c r="S165" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
@@ -8831,10 +8867,10 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -8864,7 +8900,7 @@
         <v>18</v>
       </c>
       <c r="S166" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
@@ -8872,10 +8908,10 @@
         <v>18</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -8905,7 +8941,7 @@
         <v>15</v>
       </c>
       <c r="S167" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
@@ -8913,10 +8949,10 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -8946,7 +8982,7 @@
         <v>15</v>
       </c>
       <c r="S168" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
@@ -8954,16 +8990,19 @@
         <v>999</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
       </c>
       <c r="K169" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L169" t="s">
+        <v>24</v>
       </c>
       <c r="P169">
         <v>0.84256731719108202</v>
@@ -8975,7 +9014,7 @@
         <v>15</v>
       </c>
       <c r="S169" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
@@ -8983,10 +9022,10 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D170" t="s">
         <v>9</v>
@@ -9022,7 +9061,7 @@
         <v>11</v>
       </c>
       <c r="S170" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
@@ -9030,10 +9069,10 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -9081,7 +9120,7 @@
         <v>11</v>
       </c>
       <c r="S171" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
@@ -9089,10 +9128,10 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -9140,7 +9179,7 @@
         <v>15</v>
       </c>
       <c r="S172" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
@@ -9148,10 +9187,10 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -9199,7 +9238,7 @@
         <v>18</v>
       </c>
       <c r="S173" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
@@ -9207,10 +9246,10 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D174" t="s">
         <v>19</v>
@@ -9258,7 +9297,7 @@
         <v>15</v>
       </c>
       <c r="S174" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
@@ -9266,10 +9305,10 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D175" t="s">
         <v>20</v>
@@ -9317,10 +9356,10 @@
         <v>15</v>
       </c>
       <c r="S175" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T175" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
@@ -9328,10 +9367,10 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -9361,7 +9400,7 @@
         <v>18</v>
       </c>
       <c r="S176" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
@@ -9369,10 +9408,10 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -9402,7 +9441,7 @@
         <v>18</v>
       </c>
       <c r="S177" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
@@ -9410,10 +9449,10 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -9443,7 +9482,7 @@
         <v>18</v>
       </c>
       <c r="S178" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
@@ -9451,10 +9490,10 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -9484,7 +9523,7 @@
         <v>18</v>
       </c>
       <c r="S179" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
@@ -9492,10 +9531,10 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -9525,7 +9564,7 @@
         <v>18</v>
       </c>
       <c r="S180" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
@@ -9533,10 +9572,10 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -9566,7 +9605,7 @@
         <v>15</v>
       </c>
       <c r="S181" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
@@ -9574,10 +9613,10 @@
         <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -9607,7 +9646,7 @@
         <v>15</v>
       </c>
       <c r="S182" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
@@ -9615,16 +9654,19 @@
         <v>999</v>
       </c>
       <c r="B183" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
       </c>
       <c r="K183" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L183" t="s">
+        <v>24</v>
       </c>
       <c r="P183">
         <v>0.84256731719108202</v>
@@ -9636,7 +9678,7 @@
         <v>15</v>
       </c>
       <c r="S183" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
@@ -9644,10 +9686,10 @@
         <v>5</v>
       </c>
       <c r="B184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D184" t="s">
         <v>9</v>
@@ -9683,7 +9725,7 @@
         <v>11</v>
       </c>
       <c r="S184" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
@@ -9691,10 +9733,10 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -9742,7 +9784,7 @@
         <v>11</v>
       </c>
       <c r="S185" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
@@ -9750,10 +9792,10 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D186" t="s">
         <v>14</v>
@@ -9801,7 +9843,7 @@
         <v>15</v>
       </c>
       <c r="S186" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
@@ -9809,10 +9851,10 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D187" t="s">
         <v>16</v>
@@ -9860,7 +9902,7 @@
         <v>18</v>
       </c>
       <c r="S187" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
@@ -9868,10 +9910,10 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D188" t="s">
         <v>19</v>
@@ -9919,7 +9961,7 @@
         <v>15</v>
       </c>
       <c r="S188" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
@@ -9927,10 +9969,10 @@
         <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D189" t="s">
         <v>20</v>
@@ -9978,10 +10020,10 @@
         <v>15</v>
       </c>
       <c r="S189" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T189" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
@@ -9989,10 +10031,10 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -10022,7 +10064,7 @@
         <v>18</v>
       </c>
       <c r="S190" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
@@ -10030,10 +10072,10 @@
         <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -10063,7 +10105,7 @@
         <v>18</v>
       </c>
       <c r="S191" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
@@ -10071,10 +10113,10 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -10104,7 +10146,7 @@
         <v>18</v>
       </c>
       <c r="S192" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
@@ -10112,10 +10154,10 @@
         <v>16</v>
       </c>
       <c r="B193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -10145,7 +10187,7 @@
         <v>18</v>
       </c>
       <c r="S193" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
@@ -10153,10 +10195,10 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -10186,7 +10228,7 @@
         <v>18</v>
       </c>
       <c r="S194" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
@@ -10194,10 +10236,10 @@
         <v>18</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -10227,7 +10269,7 @@
         <v>15</v>
       </c>
       <c r="S195" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
@@ -10235,10 +10277,10 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -10268,7 +10310,7 @@
         <v>15</v>
       </c>
       <c r="S196" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
@@ -10276,16 +10318,19 @@
         <v>999</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D197" t="s">
         <v>23</v>
       </c>
       <c r="K197" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L197" t="s">
+        <v>24</v>
       </c>
       <c r="P197">
         <v>0.84256731719108202</v>
@@ -10297,7 +10342,7 @@
         <v>15</v>
       </c>
       <c r="S197" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
@@ -10305,10 +10350,10 @@
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -10344,7 +10389,7 @@
         <v>11</v>
       </c>
       <c r="S198" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
@@ -10352,10 +10397,10 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D199" t="s">
         <v>12</v>
@@ -10403,7 +10448,7 @@
         <v>11</v>
       </c>
       <c r="S199" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
@@ -10411,10 +10456,10 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D200" t="s">
         <v>14</v>
@@ -10462,7 +10507,7 @@
         <v>15</v>
       </c>
       <c r="S200" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
@@ -10470,10 +10515,10 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D201" t="s">
         <v>16</v>
@@ -10521,7 +10566,7 @@
         <v>18</v>
       </c>
       <c r="S201" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.25">
@@ -10529,10 +10574,10 @@
         <v>10</v>
       </c>
       <c r="B202" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D202" t="s">
         <v>19</v>
@@ -10580,7 +10625,7 @@
         <v>15</v>
       </c>
       <c r="S202" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.25">
@@ -10588,10 +10633,10 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D203" t="s">
         <v>20</v>
@@ -10639,10 +10684,10 @@
         <v>15</v>
       </c>
       <c r="S203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T203" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.25">
@@ -10650,10 +10695,10 @@
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -10683,7 +10728,7 @@
         <v>18</v>
       </c>
       <c r="S204" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.25">
@@ -10691,10 +10736,10 @@
         <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -10724,7 +10769,7 @@
         <v>18</v>
       </c>
       <c r="S205" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.25">
@@ -10732,10 +10777,10 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -10765,7 +10810,7 @@
         <v>18</v>
       </c>
       <c r="S206" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.25">
@@ -10773,10 +10818,10 @@
         <v>16</v>
       </c>
       <c r="B207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -10806,7 +10851,7 @@
         <v>18</v>
       </c>
       <c r="S207" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.25">
@@ -10814,10 +10859,10 @@
         <v>17</v>
       </c>
       <c r="B208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -10847,7 +10892,7 @@
         <v>18</v>
       </c>
       <c r="S208" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
@@ -10855,10 +10900,10 @@
         <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -10888,7 +10933,7 @@
         <v>15</v>
       </c>
       <c r="S209" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.25">
@@ -10896,10 +10941,10 @@
         <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -10929,7 +10974,7 @@
         <v>15</v>
       </c>
       <c r="S210" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.25">
@@ -10937,16 +10982,19 @@
         <v>999</v>
       </c>
       <c r="B211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
       </c>
       <c r="K211" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L211" t="s">
+        <v>24</v>
       </c>
       <c r="P211">
         <v>0.84256731719108202</v>
@@ -10958,7 +11006,7 @@
         <v>15</v>
       </c>
       <c r="S211" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.25">
@@ -10966,10 +11014,10 @@
         <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -11005,7 +11053,7 @@
         <v>11</v>
       </c>
       <c r="S212" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.25">
@@ -11013,10 +11061,10 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D213" t="s">
         <v>12</v>
@@ -11064,7 +11112,7 @@
         <v>11</v>
       </c>
       <c r="S213" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.25">
@@ -11072,10 +11120,10 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
@@ -11123,7 +11171,7 @@
         <v>15</v>
       </c>
       <c r="S214" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.25">
@@ -11131,10 +11179,10 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D215" t="s">
         <v>16</v>
@@ -11182,7 +11230,7 @@
         <v>18</v>
       </c>
       <c r="S215" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.25">
@@ -11190,10 +11238,10 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D216" t="s">
         <v>19</v>
@@ -11241,7 +11289,7 @@
         <v>15</v>
       </c>
       <c r="S216" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.25">
@@ -11249,10 +11297,10 @@
         <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D217" t="s">
         <v>20</v>
@@ -11300,10 +11348,10 @@
         <v>15</v>
       </c>
       <c r="S217" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T217" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.25">
@@ -11311,10 +11359,10 @@
         <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -11344,7 +11392,7 @@
         <v>18</v>
       </c>
       <c r="S218" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.25">
@@ -11352,10 +11400,10 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -11385,7 +11433,7 @@
         <v>18</v>
       </c>
       <c r="S219" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.25">
@@ -11393,10 +11441,10 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -11426,7 +11474,7 @@
         <v>18</v>
       </c>
       <c r="S220" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.25">
@@ -11434,10 +11482,10 @@
         <v>16</v>
       </c>
       <c r="B221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -11467,7 +11515,7 @@
         <v>18</v>
       </c>
       <c r="S221" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.25">
@@ -11475,10 +11523,10 @@
         <v>17</v>
       </c>
       <c r="B222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -11508,7 +11556,7 @@
         <v>18</v>
       </c>
       <c r="S222" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.25">
@@ -11516,10 +11564,10 @@
         <v>18</v>
       </c>
       <c r="B223" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -11549,7 +11597,7 @@
         <v>15</v>
       </c>
       <c r="S223" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.25">
@@ -11557,10 +11605,10 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -11590,7 +11638,7 @@
         <v>15</v>
       </c>
       <c r="S224" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
@@ -11598,16 +11646,19 @@
         <v>999</v>
       </c>
       <c r="B225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D225" t="s">
         <v>23</v>
       </c>
       <c r="K225" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L225" t="s">
+        <v>24</v>
       </c>
       <c r="P225">
         <v>0.84256731719108202</v>
@@ -11619,7 +11670,7 @@
         <v>15</v>
       </c>
       <c r="S225" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.25">
@@ -11627,10 +11678,10 @@
         <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
@@ -11666,7 +11717,7 @@
         <v>11</v>
       </c>
       <c r="S226" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
@@ -11674,10 +11725,10 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D227" t="s">
         <v>12</v>
@@ -11725,7 +11776,7 @@
         <v>11</v>
       </c>
       <c r="S227" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
@@ -11733,10 +11784,10 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
@@ -11784,7 +11835,7 @@
         <v>15</v>
       </c>
       <c r="S228" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.25">
@@ -11792,10 +11843,10 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D229" t="s">
         <v>16</v>
@@ -11843,7 +11894,7 @@
         <v>18</v>
       </c>
       <c r="S229" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.25">
@@ -11851,10 +11902,10 @@
         <v>10</v>
       </c>
       <c r="B230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D230" t="s">
         <v>19</v>
@@ -11902,7 +11953,7 @@
         <v>15</v>
       </c>
       <c r="S230" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.25">
@@ -11910,10 +11961,10 @@
         <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D231" t="s">
         <v>20</v>
@@ -11961,10 +12012,10 @@
         <v>15</v>
       </c>
       <c r="S231" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T231" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.25">
@@ -11972,10 +12023,10 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -12005,7 +12056,7 @@
         <v>18</v>
       </c>
       <c r="S232" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.25">
@@ -12013,10 +12064,10 @@
         <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -12046,7 +12097,7 @@
         <v>18</v>
       </c>
       <c r="S233" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.25">
@@ -12054,10 +12105,10 @@
         <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -12087,7 +12138,7 @@
         <v>18</v>
       </c>
       <c r="S234" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.25">
@@ -12095,10 +12146,10 @@
         <v>16</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -12128,7 +12179,7 @@
         <v>18</v>
       </c>
       <c r="S235" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.25">
@@ -12136,10 +12187,10 @@
         <v>17</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -12169,7 +12220,7 @@
         <v>18</v>
       </c>
       <c r="S236" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.25">
@@ -12177,10 +12228,10 @@
         <v>18</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -12210,7 +12261,7 @@
         <v>15</v>
       </c>
       <c r="S237" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.25">
@@ -12218,10 +12269,10 @@
         <v>20</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -12251,7 +12302,7 @@
         <v>15</v>
       </c>
       <c r="S238" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.25">
@@ -12259,16 +12310,19 @@
         <v>999</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D239" t="s">
         <v>23</v>
       </c>
       <c r="K239" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L239" t="s">
+        <v>24</v>
       </c>
       <c r="P239">
         <v>0.84256731719108202</v>
@@ -12280,7 +12334,7 @@
         <v>15</v>
       </c>
       <c r="S239" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.25">
@@ -12288,10 +12342,10 @@
         <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D240" t="s">
         <v>9</v>
@@ -12327,7 +12381,7 @@
         <v>11</v>
       </c>
       <c r="S240" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.25">
@@ -12335,10 +12389,10 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D241" t="s">
         <v>12</v>
@@ -12386,7 +12440,7 @@
         <v>11</v>
       </c>
       <c r="S241" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.25">
@@ -12394,10 +12448,10 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D242" t="s">
         <v>14</v>
@@ -12445,7 +12499,7 @@
         <v>15</v>
       </c>
       <c r="S242" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.25">
@@ -12453,10 +12507,10 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D243" t="s">
         <v>16</v>
@@ -12504,7 +12558,7 @@
         <v>18</v>
       </c>
       <c r="S243" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.25">
@@ -12512,10 +12566,10 @@
         <v>10</v>
       </c>
       <c r="B244" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D244" t="s">
         <v>19</v>
@@ -12563,7 +12617,7 @@
         <v>15</v>
       </c>
       <c r="S244" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.25">
@@ -12571,10 +12625,10 @@
         <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D245" t="s">
         <v>20</v>
@@ -12622,10 +12676,10 @@
         <v>15</v>
       </c>
       <c r="S245" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T245" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.25">
@@ -12633,10 +12687,10 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -12666,7 +12720,7 @@
         <v>18</v>
       </c>
       <c r="S246" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.25">
@@ -12674,10 +12728,10 @@
         <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -12707,7 +12761,7 @@
         <v>18</v>
       </c>
       <c r="S247" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.25">
@@ -12715,10 +12769,10 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -12748,7 +12802,7 @@
         <v>18</v>
       </c>
       <c r="S248" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.25">
@@ -12756,10 +12810,10 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -12789,7 +12843,7 @@
         <v>18</v>
       </c>
       <c r="S249" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.25">
@@ -12797,10 +12851,10 @@
         <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -12830,7 +12884,7 @@
         <v>18</v>
       </c>
       <c r="S250" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.25">
@@ -12838,10 +12892,10 @@
         <v>18</v>
       </c>
       <c r="B251" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -12871,7 +12925,7 @@
         <v>15</v>
       </c>
       <c r="S251" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.25">
@@ -12879,10 +12933,10 @@
         <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -12912,7 +12966,7 @@
         <v>15</v>
       </c>
       <c r="S252" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.25">
@@ -12920,16 +12974,19 @@
         <v>999</v>
       </c>
       <c r="B253" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D253" t="s">
         <v>23</v>
       </c>
       <c r="K253" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L253" t="s">
+        <v>24</v>
       </c>
       <c r="P253">
         <v>0.84256731719108202</v>
@@ -12941,7 +12998,7 @@
         <v>15</v>
       </c>
       <c r="S253" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -12962,25 +13019,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -12988,7 +13045,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -13011,7 +13068,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -13034,7 +13091,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -13057,7 +13114,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -13080,7 +13137,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -13088,10 +13145,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>5000</v>
@@ -13111,10 +13168,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>5000</v>
@@ -13134,10 +13191,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -13157,10 +13214,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>5000</v>
@@ -13180,10 +13237,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -13203,10 +13260,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>0.9</v>
@@ -13214,10 +13271,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -13237,10 +13294,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>5000</v>
@@ -13260,10 +13317,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>5000</v>
@@ -13283,10 +13340,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -13306,10 +13363,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -13317,10 +13374,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>5000</v>
@@ -13340,10 +13397,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>5000</v>
@@ -13363,10 +13420,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -13386,10 +13443,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>5000</v>
@@ -13409,10 +13466,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13420,10 +13477,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>5000</v>
@@ -13443,10 +13500,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>5000</v>
@@ -13466,10 +13523,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>5000</v>
@@ -13489,10 +13546,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>5000</v>
@@ -13512,10 +13569,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13523,10 +13580,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28">
         <v>5000</v>
@@ -13546,10 +13603,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>5000</v>
@@ -13569,10 +13626,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>5000</v>
@@ -13592,10 +13649,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>5000</v>
@@ -13615,10 +13672,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -13626,10 +13683,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>5000</v>
@@ -13649,10 +13706,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34">
         <v>5000</v>
@@ -13672,10 +13729,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35">
         <v>5000</v>
@@ -13695,10 +13752,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>5000</v>
@@ -13718,10 +13775,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -13729,10 +13786,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>5000</v>
@@ -13752,10 +13809,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>5000</v>
@@ -13775,10 +13832,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -13798,10 +13855,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>5000</v>
@@ -13821,10 +13878,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -13832,10 +13889,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>5000</v>
@@ -13855,10 +13912,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>5000</v>
@@ -13878,10 +13935,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>5000</v>
@@ -13901,10 +13958,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>5000</v>
@@ -13924,10 +13981,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>5000</v>
@@ -13947,10 +14004,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48">
         <v>0.9</v>
@@ -13958,10 +14015,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>5000</v>
@@ -13981,10 +14038,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>5000</v>
@@ -14004,10 +14061,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>5000</v>
@@ -14027,10 +14084,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>5000</v>
@@ -14050,10 +14107,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -14061,10 +14118,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>5000</v>
@@ -14084,10 +14141,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>5000</v>
@@ -14107,10 +14164,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>5000</v>
@@ -14130,10 +14187,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>5000</v>
@@ -14153,10 +14210,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58">
         <v>5000</v>
@@ -14176,10 +14233,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G59">
         <v>0.9</v>
@@ -14187,10 +14244,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>5000</v>
@@ -14210,10 +14267,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>5000</v>
@@ -14233,10 +14290,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>5000</v>
@@ -14256,10 +14313,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>5000</v>
@@ -14279,10 +14336,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -14290,10 +14347,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>5000</v>
@@ -14313,10 +14370,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>5000</v>
@@ -14336,10 +14393,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>5000</v>
@@ -14359,10 +14416,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68">
         <v>5000</v>
@@ -14382,10 +14439,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>5000</v>
@@ -14405,10 +14462,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G70">
         <v>0.9</v>
@@ -14416,10 +14473,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>5000</v>
@@ -14439,10 +14496,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72">
         <v>5000</v>
@@ -14462,10 +14519,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73">
         <v>5000</v>
@@ -14485,10 +14542,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74">
         <v>5000</v>
@@ -14508,10 +14565,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -14519,10 +14576,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C76">
         <v>5000</v>
@@ -14542,10 +14599,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C77">
         <v>5000</v>
@@ -14565,10 +14622,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C78">
         <v>5000</v>
@@ -14588,10 +14645,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C79">
         <v>5000</v>
@@ -14611,10 +14668,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -14622,10 +14679,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81">
         <v>5000</v>
@@ -14645,10 +14702,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82">
         <v>5000</v>
@@ -14668,10 +14725,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83">
         <v>5000</v>
@@ -14691,10 +14748,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84">
         <v>5000</v>
@@ -14714,10 +14771,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -14748,26 +14805,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -14780,114 +14837,114 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
